--- a/skyvatiers/checklist.xlsx
+++ b/skyvatiers/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/skyvatiers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA035DE9-84D6-6346-B325-BFD05E9F1CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4A94EF-70B6-164D-B935-786CC082A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="600" windowWidth="25080" windowHeight="15800" xr2:uid="{3443257A-7F51-0648-878F-30B611CF645B}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>rulebook</t>
   </si>
   <si>
-    <t>skyvatiers.jpeg</t>
-  </si>
-  <si>
     <t>Conos</t>
   </si>
   <si>
@@ -68,6 +65,9 @@
   </si>
   <si>
     <t>Skyvatiers of the White Seas: 2nd Edition</t>
+  </si>
+  <si>
+    <t>skyvatiers_2nd.jpeg</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,16 +456,16 @@
         <v>2018</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
